--- a/data/species_distributions/raw/elephant_seal/Lowry_2014_Table2.xlsx
+++ b/data/species_distributions/raw/elephant_seal/Lowry_2014_Table2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/species_distributions/raw/elephant_seal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB4E182-79CB-CF45-AA28-D97929606B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9FC8D5-CA5B-A14A-A119-FC88C253D4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="500" windowWidth="29840" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="500" windowWidth="29840" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Year</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>South Farallon Islands</t>
-  </si>
-  <si>
-    <t>Ano Nuebo Island</t>
   </si>
   <si>
     <t>Cape San Martin/Gorda</t>
@@ -112,7 +109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -177,10 +174,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -489,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -508,8 +505,7 @@
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.59765625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="125" x14ac:dyDescent="0.2">
@@ -523,40 +519,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -2076,7 +2072,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -2090,16 +2086,16 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2117,10 +2113,10 @@
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7">
         <v>41.761802000000003</v>
@@ -2144,7 +2140,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -2158,7 +2154,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -2172,10 +2168,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8">
         <v>37.108286999999997</v>
@@ -2186,10 +2182,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="8">
         <v>35.888942</v>
@@ -2200,10 +2196,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="8">
         <v>35.665089000000002</v>
@@ -2214,10 +2210,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="8">
         <v>34.448363999999998</v>
@@ -2228,10 +2224,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8">
         <v>34.038243000000001</v>
@@ -2242,10 +2238,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8">
         <v>33.967716000000003</v>
@@ -2256,10 +2252,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8">
         <v>33.246605000000002</v>
@@ -2270,10 +2266,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8">
         <v>33.477054000000003</v>
@@ -2284,10 +2280,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8">
         <v>32.897973999999998</v>
@@ -2298,10 +2294,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="8">
         <v>32.417808000000001</v>
@@ -2312,10 +2308,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="8">
         <v>29.045981999999999</v>
@@ -2326,10 +2322,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="8">
         <v>28.306190999999998</v>
@@ -2340,10 +2336,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="8">
         <v>27.875630000000001</v>
@@ -2354,10 +2350,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="8">
         <v>28.197928000000001</v>
